--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I296"/>
+  <dimension ref="A1:I297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10796,6 +10796,41 @@
         <v>74689900</v>
       </c>
     </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F297" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I297" t="n">
+        <v>136076200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I297"/>
+  <dimension ref="A1:I298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10831,6 +10831,41 @@
         <v>136076200</v>
       </c>
     </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I298" t="n">
+        <v>99651800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I298"/>
+  <dimension ref="A1:I299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10866,6 +10866,41 @@
         <v>99651800</v>
       </c>
     </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I299" t="n">
+        <v>80122200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I299"/>
+  <dimension ref="A1:I300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10901,6 +10901,41 @@
         <v>80122200</v>
       </c>
     </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I300" t="n">
+        <v>39108500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I300"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10936,6 +10936,41 @@
         <v>39108500</v>
       </c>
     </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I301" t="n">
+        <v>100734700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I301"/>
+  <dimension ref="A1:I302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10971,6 +10971,41 @@
         <v>100734700</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I302" t="n">
+        <v>10710500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I302"/>
+  <dimension ref="A1:I303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11006,6 +11006,41 @@
         <v>10710500</v>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I303" t="n">
+        <v>8102700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I303"/>
+  <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11041,6 +11041,41 @@
         <v>8102700</v>
       </c>
     </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I304" t="n">
+        <v>8933700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I304"/>
+  <dimension ref="A1:I305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11076,6 +11076,41 @@
         <v>8933700</v>
       </c>
     </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I305" t="n">
+        <v>4892300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I305"/>
+  <dimension ref="A1:I306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11111,6 +11111,41 @@
         <v>4892300</v>
       </c>
     </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F306" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I306" t="n">
+        <v>6843800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I306"/>
+  <dimension ref="A1:I307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11146,6 +11146,41 @@
         <v>6843800</v>
       </c>
     </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I307" t="n">
+        <v>4269200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I307"/>
+  <dimension ref="A1:I308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11181,6 +11181,41 @@
         <v>4269200</v>
       </c>
     </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F308" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I308" t="n">
+        <v>4089600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I308"/>
+  <dimension ref="A1:I310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11216,6 +11216,76 @@
         <v>4089600</v>
       </c>
     </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F309" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I309" t="n">
+        <v>8904900</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F310" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>6322800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I310"/>
+  <dimension ref="A1:I312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11286,6 +11286,76 @@
         <v>6322800</v>
       </c>
     </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F311" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I311" t="n">
+        <v>4374000</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F312" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I312" t="n">
+        <v>2657300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I312"/>
+  <dimension ref="A1:I313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11356,6 +11356,41 @@
         <v>2657300</v>
       </c>
     </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F313" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I313" t="n">
+        <v>2899500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I313"/>
+  <dimension ref="A1:I314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11391,6 +11391,41 @@
         <v>2899500</v>
       </c>
     </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F314" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I314" t="n">
+        <v>2515600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I314"/>
+  <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11426,6 +11426,41 @@
         <v>2515600</v>
       </c>
     </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F315" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I315" t="n">
+        <v>2300200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I315"/>
+  <dimension ref="A1:I316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11461,6 +11461,41 @@
         <v>2300200</v>
       </c>
     </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F316" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I316" t="n">
+        <v>4458000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I316"/>
+  <dimension ref="A1:I318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11496,6 +11496,76 @@
         <v>4458000</v>
       </c>
     </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I317" t="n">
+        <v>3168800</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F318" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I318" t="n">
+        <v>1242100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I318"/>
+  <dimension ref="A1:I319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11566,6 +11566,41 @@
         <v>1242100</v>
       </c>
     </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I319" t="n">
+        <v>2705400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I319"/>
+  <dimension ref="A1:I320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11601,6 +11601,41 @@
         <v>2705400</v>
       </c>
     </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F320" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I320" t="n">
+        <v>4044600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I320"/>
+  <dimension ref="A1:I329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9083,11 +9083,11 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -9101,28 +9101,28 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>0.51</v>
+        <v>0.374</v>
       </c>
       <c r="F248" t="n">
-        <v>0.53</v>
+        <v>0.38</v>
       </c>
       <c r="G248" t="n">
-        <v>0.51</v>
+        <v>0.374</v>
       </c>
       <c r="H248" t="n">
-        <v>0.53</v>
+        <v>0.38</v>
       </c>
       <c r="I248" t="n">
-        <v>106200</v>
+        <v>565800</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -9136,28 +9136,28 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0.525</v>
+        <v>0.364</v>
       </c>
       <c r="F249" t="n">
-        <v>0.525</v>
+        <v>0.374</v>
       </c>
       <c r="G249" t="n">
-        <v>0.525</v>
+        <v>0.36</v>
       </c>
       <c r="H249" t="n">
-        <v>0.525</v>
+        <v>0.374</v>
       </c>
       <c r="I249" t="n">
-        <v>8800</v>
+        <v>174400</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -9171,28 +9171,28 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>0.525</v>
+        <v>0.364</v>
       </c>
       <c r="F250" t="n">
-        <v>0.525</v>
+        <v>0.364</v>
       </c>
       <c r="G250" t="n">
-        <v>0.525</v>
+        <v>0.354</v>
       </c>
       <c r="H250" t="n">
-        <v>0.525</v>
+        <v>0.354</v>
       </c>
       <c r="I250" t="n">
-        <v>122000</v>
+        <v>134000</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -9206,28 +9206,28 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>0.52</v>
+        <v>0.344</v>
       </c>
       <c r="F251" t="n">
-        <v>0.53</v>
+        <v>0.36</v>
       </c>
       <c r="G251" t="n">
-        <v>0.515</v>
+        <v>0.338</v>
       </c>
       <c r="H251" t="n">
-        <v>0.53</v>
+        <v>0.354</v>
       </c>
       <c r="I251" t="n">
-        <v>184200</v>
+        <v>521800</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -9241,28 +9241,28 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>0.525</v>
+        <v>0.347</v>
       </c>
       <c r="F252" t="n">
-        <v>0.535</v>
+        <v>0.354</v>
       </c>
       <c r="G252" t="n">
-        <v>0.52</v>
+        <v>0.347</v>
       </c>
       <c r="H252" t="n">
-        <v>0.52</v>
+        <v>0.354</v>
       </c>
       <c r="I252" t="n">
-        <v>34800</v>
+        <v>21100</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -9276,28 +9276,28 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>0.525</v>
+        <v>0.351</v>
       </c>
       <c r="F253" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.351</v>
       </c>
       <c r="G253" t="n">
-        <v>0.525</v>
+        <v>0.328</v>
       </c>
       <c r="H253" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.351</v>
       </c>
       <c r="I253" t="n">
-        <v>1302400</v>
+        <v>238300</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -9311,28 +9311,28 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.347</v>
       </c>
       <c r="F254" t="n">
-        <v>0.575</v>
+        <v>0.36</v>
       </c>
       <c r="G254" t="n">
-        <v>0.545</v>
+        <v>0.334</v>
       </c>
       <c r="H254" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.341</v>
       </c>
       <c r="I254" t="n">
-        <v>1316700</v>
+        <v>758000</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -9346,28 +9346,28 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>0.57</v>
+        <v>0.341</v>
       </c>
       <c r="F255" t="n">
-        <v>0.575</v>
+        <v>0.341</v>
       </c>
       <c r="G255" t="n">
-        <v>0.54</v>
+        <v>0.334</v>
       </c>
       <c r="H255" t="n">
-        <v>0.555</v>
+        <v>0.334</v>
       </c>
       <c r="I255" t="n">
-        <v>797000</v>
+        <v>125100</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -9381,28 +9381,28 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.334</v>
       </c>
       <c r="F256" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.347</v>
       </c>
       <c r="G256" t="n">
-        <v>0.54</v>
+        <v>0.334</v>
       </c>
       <c r="H256" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.347</v>
       </c>
       <c r="I256" t="n">
-        <v>633700</v>
+        <v>135100</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -9416,28 +9416,28 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
       <c r="F257" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="G257" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="H257" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="I257" t="n">
-        <v>1107100</v>
+        <v>106200</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -9451,28 +9451,28 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.525</v>
       </c>
       <c r="F258" t="n">
-        <v>0.57</v>
+        <v>0.525</v>
       </c>
       <c r="G258" t="n">
-        <v>0.55</v>
+        <v>0.525</v>
       </c>
       <c r="H258" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.525</v>
       </c>
       <c r="I258" t="n">
-        <v>765400</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -9486,28 +9486,28 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>0.555</v>
+        <v>0.525</v>
       </c>
       <c r="F259" t="n">
-        <v>0.57</v>
+        <v>0.525</v>
       </c>
       <c r="G259" t="n">
-        <v>0.53</v>
+        <v>0.525</v>
       </c>
       <c r="H259" t="n">
-        <v>0.535</v>
+        <v>0.525</v>
       </c>
       <c r="I259" t="n">
-        <v>1683800</v>
+        <v>122000</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -9521,28 +9521,28 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>0.545</v>
+        <v>0.52</v>
       </c>
       <c r="F260" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="G260" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H260" t="n">
         <v>0.53</v>
       </c>
-      <c r="H260" t="n">
-        <v>0.55</v>
-      </c>
       <c r="I260" t="n">
-        <v>678000</v>
+        <v>184200</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -9556,28 +9556,28 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>0.55</v>
+        <v>0.525</v>
       </c>
       <c r="F261" t="n">
-        <v>0.555</v>
+        <v>0.535</v>
       </c>
       <c r="G261" t="n">
-        <v>0.545</v>
+        <v>0.52</v>
       </c>
       <c r="H261" t="n">
-        <v>0.545</v>
+        <v>0.52</v>
       </c>
       <c r="I261" t="n">
-        <v>445100</v>
+        <v>34800</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -9591,28 +9591,28 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>0.545</v>
+        <v>0.525</v>
       </c>
       <c r="F262" t="n">
-        <v>0.555</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="G262" t="n">
-        <v>0.535</v>
+        <v>0.525</v>
       </c>
       <c r="H262" t="n">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I262" t="n">
-        <v>575500</v>
+        <v>1302400</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -9626,28 +9626,28 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>0.535</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F263" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G263" t="n">
         <v>0.545</v>
       </c>
-      <c r="G263" t="n">
-        <v>0.52</v>
-      </c>
       <c r="H263" t="n">
-        <v>0.545</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="I263" t="n">
-        <v>631200</v>
+        <v>1316700</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -9661,28 +9661,28 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>0.545</v>
+        <v>0.57</v>
       </c>
       <c r="F264" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="G264" t="n">
         <v>0.54</v>
       </c>
       <c r="H264" t="n">
-        <v>0.55</v>
+        <v>0.555</v>
       </c>
       <c r="I264" t="n">
-        <v>416600</v>
+        <v>797000</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -9696,28 +9696,28 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>0.545</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F265" t="n">
-        <v>0.545</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G265" t="n">
-        <v>0.535</v>
+        <v>0.54</v>
       </c>
       <c r="H265" t="n">
-        <v>0.545</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I265" t="n">
-        <v>403600</v>
+        <v>633700</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -9731,28 +9731,28 @@
         </is>
       </c>
       <c r="E266" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G266" t="n">
         <v>0.54</v>
       </c>
-      <c r="F266" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.515</v>
-      </c>
       <c r="H266" t="n">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I266" t="n">
-        <v>580000</v>
+        <v>1107100</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9766,28 +9766,28 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F267" t="n">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
       <c r="G267" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="H267" t="n">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I267" t="n">
-        <v>238000</v>
+        <v>765400</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -9801,28 +9801,28 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>0.52</v>
+        <v>0.555</v>
       </c>
       <c r="F268" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="G268" t="n">
-        <v>0.515</v>
+        <v>0.53</v>
       </c>
       <c r="H268" t="n">
-        <v>0.53</v>
+        <v>0.535</v>
       </c>
       <c r="I268" t="n">
-        <v>532000</v>
+        <v>1683800</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9836,28 +9836,28 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>0.52</v>
+        <v>0.545</v>
       </c>
       <c r="F269" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="G269" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="H269" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="I269" t="n">
-        <v>178500</v>
+        <v>678000</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -9871,28 +9871,28 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="F270" t="n">
-        <v>0.54</v>
+        <v>0.555</v>
       </c>
       <c r="G270" t="n">
-        <v>0.51</v>
+        <v>0.545</v>
       </c>
       <c r="H270" t="n">
-        <v>0.54</v>
+        <v>0.545</v>
       </c>
       <c r="I270" t="n">
-        <v>520500</v>
+        <v>445100</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -9906,28 +9906,28 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0.53</v>
+        <v>0.545</v>
       </c>
       <c r="F271" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G271" t="n">
         <v>0.535</v>
       </c>
-      <c r="G271" t="n">
-        <v>0.525</v>
-      </c>
       <c r="H271" t="n">
-        <v>0.525</v>
+        <v>0.54</v>
       </c>
       <c r="I271" t="n">
-        <v>469000</v>
+        <v>575500</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -9941,28 +9941,28 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>0.54</v>
+        <v>0.535</v>
       </c>
       <c r="F272" t="n">
-        <v>0.555</v>
+        <v>0.545</v>
       </c>
       <c r="G272" t="n">
-        <v>0.515</v>
+        <v>0.52</v>
       </c>
       <c r="H272" t="n">
-        <v>0.525</v>
+        <v>0.545</v>
       </c>
       <c r="I272" t="n">
-        <v>2543700</v>
+        <v>631200</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -9976,28 +9976,28 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>0.525</v>
+        <v>0.545</v>
       </c>
       <c r="F273" t="n">
         <v>0.55</v>
       </c>
       <c r="G273" t="n">
-        <v>0.525</v>
+        <v>0.54</v>
       </c>
       <c r="H273" t="n">
-        <v>0.525</v>
+        <v>0.55</v>
       </c>
       <c r="I273" t="n">
-        <v>1885500</v>
+        <v>416600</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.525</v>
+        <v>0.545</v>
       </c>
       <c r="F274" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G274" t="n">
         <v>0.535</v>
       </c>
-      <c r="G274" t="n">
-        <v>0.515</v>
-      </c>
       <c r="H274" t="n">
-        <v>0.525</v>
+        <v>0.545</v>
       </c>
       <c r="I274" t="n">
-        <v>543200</v>
+        <v>403600</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -10046,28 +10046,28 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="F275" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="G275" t="n">
-        <v>0.52</v>
+        <v>0.515</v>
       </c>
       <c r="H275" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="I275" t="n">
-        <v>237100</v>
+        <v>580000</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -10081,28 +10081,28 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>0.525</v>
+        <v>0.53</v>
       </c>
       <c r="F276" t="n">
-        <v>0.525</v>
+        <v>0.53</v>
       </c>
       <c r="G276" t="n">
-        <v>0.515</v>
+        <v>0.52</v>
       </c>
       <c r="H276" t="n">
-        <v>0.515</v>
+        <v>0.52</v>
       </c>
       <c r="I276" t="n">
-        <v>569500</v>
+        <v>238000</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -10119,25 +10119,25 @@
         <v>0.52</v>
       </c>
       <c r="F277" t="n">
-        <v>0.525</v>
+        <v>0.54</v>
       </c>
       <c r="G277" t="n">
         <v>0.515</v>
       </c>
       <c r="H277" t="n">
-        <v>0.515</v>
+        <v>0.53</v>
       </c>
       <c r="I277" t="n">
-        <v>3001500</v>
+        <v>532000</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -10151,28 +10151,28 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0.515</v>
+        <v>0.52</v>
       </c>
       <c r="F278" t="n">
-        <v>0.525</v>
+        <v>0.54</v>
       </c>
       <c r="G278" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="H278" t="n">
-        <v>0.515</v>
+        <v>0.54</v>
       </c>
       <c r="I278" t="n">
-        <v>3064900</v>
+        <v>178500</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -10186,28 +10186,28 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="F279" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="G279" t="n">
-        <v>0.515</v>
+        <v>0.51</v>
       </c>
       <c r="H279" t="n">
-        <v>0.515</v>
+        <v>0.54</v>
       </c>
       <c r="I279" t="n">
-        <v>2105600</v>
+        <v>520500</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -10221,28 +10221,28 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>0.215</v>
+        <v>0.53</v>
       </c>
       <c r="F280" t="n">
-        <v>0.23</v>
+        <v>0.535</v>
       </c>
       <c r="G280" t="n">
-        <v>0.205</v>
+        <v>0.525</v>
       </c>
       <c r="H280" t="n">
-        <v>0.225</v>
+        <v>0.525</v>
       </c>
       <c r="I280" t="n">
-        <v>1689600</v>
+        <v>469000</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -10256,28 +10256,28 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>0.225</v>
+        <v>0.54</v>
       </c>
       <c r="F281" t="n">
-        <v>0.25</v>
+        <v>0.555</v>
       </c>
       <c r="G281" t="n">
-        <v>0.225</v>
+        <v>0.515</v>
       </c>
       <c r="H281" t="n">
-        <v>0.24</v>
+        <v>0.525</v>
       </c>
       <c r="I281" t="n">
-        <v>6281800</v>
+        <v>2543700</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -10291,28 +10291,28 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>0.235</v>
+        <v>0.525</v>
       </c>
       <c r="F282" t="n">
-        <v>0.245</v>
+        <v>0.55</v>
       </c>
       <c r="G282" t="n">
-        <v>0.22</v>
+        <v>0.525</v>
       </c>
       <c r="H282" t="n">
-        <v>0.23</v>
+        <v>0.525</v>
       </c>
       <c r="I282" t="n">
-        <v>3215000</v>
+        <v>1885500</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -10326,28 +10326,28 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>0.225</v>
+        <v>0.525</v>
       </c>
       <c r="F283" t="n">
-        <v>0.225</v>
+        <v>0.535</v>
       </c>
       <c r="G283" t="n">
-        <v>0.21</v>
+        <v>0.515</v>
       </c>
       <c r="H283" t="n">
-        <v>0.22</v>
+        <v>0.525</v>
       </c>
       <c r="I283" t="n">
-        <v>1147900</v>
+        <v>543200</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -10361,28 +10361,28 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>0.215</v>
+        <v>0.53</v>
       </c>
       <c r="F284" t="n">
-        <v>0.215</v>
+        <v>0.53</v>
       </c>
       <c r="G284" t="n">
-        <v>0.205</v>
+        <v>0.52</v>
       </c>
       <c r="H284" t="n">
-        <v>0.215</v>
+        <v>0.52</v>
       </c>
       <c r="I284" t="n">
-        <v>1420500</v>
+        <v>237100</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -10396,28 +10396,28 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>0.205</v>
+        <v>0.525</v>
       </c>
       <c r="F285" t="n">
-        <v>0.215</v>
+        <v>0.525</v>
       </c>
       <c r="G285" t="n">
-        <v>0.2</v>
+        <v>0.515</v>
       </c>
       <c r="H285" t="n">
-        <v>0.21</v>
+        <v>0.515</v>
       </c>
       <c r="I285" t="n">
-        <v>1724300</v>
+        <v>569500</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -10431,28 +10431,28 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>0.21</v>
+        <v>0.52</v>
       </c>
       <c r="F286" t="n">
-        <v>0.21</v>
+        <v>0.525</v>
       </c>
       <c r="G286" t="n">
-        <v>0.21</v>
+        <v>0.515</v>
       </c>
       <c r="H286" t="n">
-        <v>0.21</v>
+        <v>0.515</v>
       </c>
       <c r="I286" t="n">
-        <v>221900</v>
+        <v>3001500</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -10466,28 +10466,28 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>0.21</v>
+        <v>0.515</v>
       </c>
       <c r="F287" t="n">
-        <v>0.21</v>
+        <v>0.525</v>
       </c>
       <c r="G287" t="n">
-        <v>0.205</v>
+        <v>0.51</v>
       </c>
       <c r="H287" t="n">
-        <v>0.21</v>
+        <v>0.515</v>
       </c>
       <c r="I287" t="n">
-        <v>1139800</v>
+        <v>3064900</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -10501,28 +10501,28 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>0.21</v>
+        <v>0.52</v>
       </c>
       <c r="F288" t="n">
-        <v>0.21</v>
+        <v>0.53</v>
       </c>
       <c r="G288" t="n">
-        <v>0.2</v>
+        <v>0.515</v>
       </c>
       <c r="H288" t="n">
-        <v>0.205</v>
+        <v>0.515</v>
       </c>
       <c r="I288" t="n">
-        <v>2263400</v>
+        <v>2105600</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -10536,28 +10536,28 @@
         </is>
       </c>
       <c r="E289" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G289" t="n">
         <v>0.205</v>
       </c>
-      <c r="F289" t="n">
-        <v>0.205</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.195</v>
-      </c>
       <c r="H289" t="n">
-        <v>0.195</v>
+        <v>0.225</v>
       </c>
       <c r="I289" t="n">
-        <v>1123800</v>
+        <v>1689600</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -10571,28 +10571,28 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>0.2</v>
+        <v>0.225</v>
       </c>
       <c r="F290" t="n">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="G290" t="n">
-        <v>0.2</v>
+        <v>0.225</v>
       </c>
       <c r="H290" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="I290" t="n">
-        <v>2531900</v>
+        <v>6281800</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -10606,28 +10606,28 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>0.195</v>
+        <v>0.235</v>
       </c>
       <c r="F291" t="n">
-        <v>0.215</v>
+        <v>0.245</v>
       </c>
       <c r="G291" t="n">
-        <v>0.195</v>
+        <v>0.22</v>
       </c>
       <c r="H291" t="n">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="I291" t="n">
-        <v>2347800</v>
+        <v>3215000</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -10641,28 +10641,28 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>0.215</v>
+        <v>0.225</v>
       </c>
       <c r="F292" t="n">
         <v>0.225</v>
       </c>
       <c r="G292" t="n">
-        <v>0.165</v>
+        <v>0.21</v>
       </c>
       <c r="H292" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="I292" t="n">
-        <v>24931900</v>
+        <v>1147900</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -10676,28 +10676,28 @@
         </is>
       </c>
       <c r="E293" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F293" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G293" t="n">
         <v>0.205</v>
       </c>
-      <c r="F293" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.19</v>
-      </c>
       <c r="H293" t="n">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="I293" t="n">
-        <v>57231300</v>
+        <v>1420500</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -10711,28 +10711,28 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>0.2</v>
+        <v>0.205</v>
       </c>
       <c r="F294" t="n">
-        <v>0.235</v>
+        <v>0.215</v>
       </c>
       <c r="G294" t="n">
         <v>0.2</v>
       </c>
       <c r="H294" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="I294" t="n">
-        <v>50450400</v>
+        <v>1724300</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -10746,28 +10746,28 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>0.225</v>
+        <v>0.21</v>
       </c>
       <c r="F295" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="G295" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="H295" t="n">
         <v>0.21</v>
       </c>
       <c r="I295" t="n">
-        <v>51972500</v>
+        <v>221900</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -10781,28 +10781,28 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="F296" t="n">
-        <v>0.235</v>
+        <v>0.21</v>
       </c>
       <c r="G296" t="n">
-        <v>0.195</v>
+        <v>0.205</v>
       </c>
       <c r="H296" t="n">
-        <v>0.205</v>
+        <v>0.21</v>
       </c>
       <c r="I296" t="n">
-        <v>74689900</v>
+        <v>1139800</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -10816,28 +10816,28 @@
         </is>
       </c>
       <c r="E297" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F297" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H297" t="n">
         <v>0.205</v>
       </c>
-      <c r="F297" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.175</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0.185</v>
-      </c>
       <c r="I297" t="n">
-        <v>136076200</v>
+        <v>2263400</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -10851,28 +10851,28 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>0.185</v>
+        <v>0.205</v>
       </c>
       <c r="F298" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G298" t="n">
         <v>0.195</v>
       </c>
-      <c r="G298" t="n">
-        <v>0.15</v>
-      </c>
       <c r="H298" t="n">
-        <v>0.155</v>
+        <v>0.195</v>
       </c>
       <c r="I298" t="n">
-        <v>99651800</v>
+        <v>1123800</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -10886,28 +10886,28 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>0.155</v>
+        <v>0.2</v>
       </c>
       <c r="F299" t="n">
-        <v>0.165</v>
+        <v>0.21</v>
       </c>
       <c r="G299" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="H299" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="I299" t="n">
-        <v>80122200</v>
+        <v>2531900</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -10921,28 +10921,28 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>0.15</v>
+        <v>0.195</v>
       </c>
       <c r="F300" t="n">
-        <v>0.16</v>
+        <v>0.215</v>
       </c>
       <c r="G300" t="n">
-        <v>0.145</v>
+        <v>0.195</v>
       </c>
       <c r="H300" t="n">
-        <v>0.15</v>
+        <v>0.215</v>
       </c>
       <c r="I300" t="n">
-        <v>39108500</v>
+        <v>2347800</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -10956,28 +10956,28 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>0.15</v>
+        <v>0.215</v>
       </c>
       <c r="F301" t="n">
-        <v>0.155</v>
+        <v>0.225</v>
       </c>
       <c r="G301" t="n">
-        <v>0.135</v>
+        <v>0.165</v>
       </c>
       <c r="H301" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="I301" t="n">
-        <v>100734700</v>
+        <v>24931900</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -10991,28 +10991,28 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>0.14</v>
+        <v>0.205</v>
       </c>
       <c r="F302" t="n">
-        <v>0.145</v>
+        <v>0.225</v>
       </c>
       <c r="G302" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="H302" t="n">
-        <v>0.135</v>
+        <v>0.2</v>
       </c>
       <c r="I302" t="n">
-        <v>10710500</v>
+        <v>57231300</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -11026,28 +11026,28 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>0.135</v>
+        <v>0.2</v>
       </c>
       <c r="F303" t="n">
-        <v>0.135</v>
+        <v>0.235</v>
       </c>
       <c r="G303" t="n">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="H303" t="n">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="I303" t="n">
-        <v>8102700</v>
+        <v>50450400</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -11061,28 +11061,28 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>0.13</v>
+        <v>0.225</v>
       </c>
       <c r="F304" t="n">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="G304" t="n">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="H304" t="n">
-        <v>0.125</v>
+        <v>0.21</v>
       </c>
       <c r="I304" t="n">
-        <v>8933700</v>
+        <v>51972500</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -11096,28 +11096,28 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>0.125</v>
+        <v>0.22</v>
       </c>
       <c r="F305" t="n">
-        <v>0.13</v>
+        <v>0.235</v>
       </c>
       <c r="G305" t="n">
-        <v>0.12</v>
+        <v>0.195</v>
       </c>
       <c r="H305" t="n">
-        <v>0.125</v>
+        <v>0.205</v>
       </c>
       <c r="I305" t="n">
-        <v>4892300</v>
+        <v>74689900</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -11131,28 +11131,28 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>0.12</v>
+        <v>0.205</v>
       </c>
       <c r="F306" t="n">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="G306" t="n">
-        <v>0.11</v>
+        <v>0.175</v>
       </c>
       <c r="H306" t="n">
-        <v>0.115</v>
+        <v>0.185</v>
       </c>
       <c r="I306" t="n">
-        <v>6843800</v>
+        <v>136076200</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -11166,28 +11166,28 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>0.11</v>
+        <v>0.185</v>
       </c>
       <c r="F307" t="n">
-        <v>0.115</v>
+        <v>0.195</v>
       </c>
       <c r="G307" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="H307" t="n">
-        <v>0.11</v>
+        <v>0.155</v>
       </c>
       <c r="I307" t="n">
-        <v>4269200</v>
+        <v>99651800</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -11201,28 +11201,28 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>0.11</v>
+        <v>0.155</v>
       </c>
       <c r="F308" t="n">
-        <v>0.11</v>
+        <v>0.165</v>
       </c>
       <c r="G308" t="n">
-        <v>0.105</v>
+        <v>0.14</v>
       </c>
       <c r="H308" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I308" t="n">
-        <v>4089600</v>
+        <v>80122200</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -11236,28 +11236,28 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>0.115</v>
+        <v>0.15</v>
       </c>
       <c r="F309" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="G309" t="n">
-        <v>0.11</v>
+        <v>0.145</v>
       </c>
       <c r="H309" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I309" t="n">
-        <v>8904900</v>
+        <v>39108500</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -11271,28 +11271,28 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="F310" t="n">
-        <v>0.11</v>
+        <v>0.155</v>
       </c>
       <c r="G310" t="n">
-        <v>0.095</v>
+        <v>0.135</v>
       </c>
       <c r="H310" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="I310" t="n">
-        <v>6322800</v>
+        <v>100734700</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -11306,28 +11306,28 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>0.095</v>
+        <v>0.14</v>
       </c>
       <c r="F311" t="n">
-        <v>0.095</v>
+        <v>0.145</v>
       </c>
       <c r="G311" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="H311" t="n">
-        <v>0.095</v>
+        <v>0.135</v>
       </c>
       <c r="I311" t="n">
-        <v>4374000</v>
+        <v>10710500</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -11341,28 +11341,28 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>0.095</v>
+        <v>0.135</v>
       </c>
       <c r="F312" t="n">
-        <v>0.095</v>
+        <v>0.135</v>
       </c>
       <c r="G312" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="H312" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I312" t="n">
-        <v>2657300</v>
+        <v>8102700</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -11376,28 +11376,28 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="F313" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="G313" t="n">
-        <v>0.08</v>
+        <v>0.125</v>
       </c>
       <c r="H313" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="I313" t="n">
-        <v>2899500</v>
+        <v>8933700</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -11411,28 +11411,28 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>0.09</v>
+        <v>0.125</v>
       </c>
       <c r="F314" t="n">
-        <v>0.095</v>
+        <v>0.13</v>
       </c>
       <c r="G314" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="H314" t="n">
-        <v>0.09</v>
+        <v>0.125</v>
       </c>
       <c r="I314" t="n">
-        <v>2515600</v>
+        <v>4892300</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -11446,28 +11446,28 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>0.095</v>
+        <v>0.12</v>
       </c>
       <c r="F315" t="n">
-        <v>0.095</v>
+        <v>0.12</v>
       </c>
       <c r="G315" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="H315" t="n">
-        <v>0.09</v>
+        <v>0.115</v>
       </c>
       <c r="I315" t="n">
-        <v>2300200</v>
+        <v>6843800</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -11481,28 +11481,28 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="F316" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="G316" t="n">
-        <v>0.065</v>
+        <v>0.11</v>
       </c>
       <c r="H316" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I316" t="n">
-        <v>4458000</v>
+        <v>4269200</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -11516,28 +11516,28 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>0.065</v>
+        <v>0.11</v>
       </c>
       <c r="F317" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="G317" t="n">
-        <v>0.06</v>
+        <v>0.105</v>
       </c>
       <c r="H317" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I317" t="n">
-        <v>3168800</v>
+        <v>4089600</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -11551,28 +11551,28 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>0.075</v>
+        <v>0.115</v>
       </c>
       <c r="F318" t="n">
-        <v>0.075</v>
+        <v>0.12</v>
       </c>
       <c r="G318" t="n">
-        <v>0.065</v>
+        <v>0.11</v>
       </c>
       <c r="H318" t="n">
-        <v>0.065</v>
+        <v>0.11</v>
       </c>
       <c r="I318" t="n">
-        <v>1242100</v>
+        <v>8904900</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -11586,53 +11586,368 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>0.065</v>
+        <v>0.11</v>
       </c>
       <c r="F319" t="n">
-        <v>0.065</v>
+        <v>0.11</v>
       </c>
       <c r="G319" t="n">
-        <v>0.055</v>
+        <v>0.095</v>
       </c>
       <c r="H319" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I319" t="n">
-        <v>2705400</v>
+        <v>6322800</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F320" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I320" t="n">
+        <v>4374000</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F321" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I321" t="n">
+        <v>2657300</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E322" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F322" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I322" t="n">
+        <v>2899500</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E323" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F323" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I323" t="n">
+        <v>2515600</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E324" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F324" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I324" t="n">
+        <v>2300200</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E325" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F325" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I325" t="n">
+        <v>4458000</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E326" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F326" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I326" t="n">
+        <v>3168800</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E327" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F327" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I327" t="n">
+        <v>1242100</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E328" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F328" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I328" t="n">
+        <v>2705400</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B320" t="inlineStr">
+      <c r="B329" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>0203</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>SMETRIC</t>
-        </is>
-      </c>
-      <c r="E320" t="n">
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E329" t="n">
         <v>0.055</v>
       </c>
-      <c r="F320" t="n">
+      <c r="F329" t="n">
         <v>0.055</v>
       </c>
-      <c r="G320" t="n">
+      <c r="G329" t="n">
         <v>0.045</v>
       </c>
-      <c r="H320" t="n">
+      <c r="H329" t="n">
         <v>0.055</v>
       </c>
-      <c r="I320" t="n">
+      <c r="I329" t="n">
         <v>4044600</v>
       </c>
     </row>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I329"/>
+  <dimension ref="A1:I330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11951,6 +11951,41 @@
         <v>4044600</v>
       </c>
     </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E330" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F330" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I330" t="n">
+        <v>6709700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I330"/>
+  <dimension ref="A1:I331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11986,6 +11986,41 @@
         <v>6709700</v>
       </c>
     </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E331" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I331" t="n">
+        <v>4804100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I331"/>
+  <dimension ref="A1:I332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12021,6 +12021,41 @@
         <v>4804100</v>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E332" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F332" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I332" t="n">
+        <v>1921300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I332"/>
+  <dimension ref="A1:I333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12056,6 +12056,41 @@
         <v>1921300</v>
       </c>
     </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E333" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F333" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I333" t="n">
+        <v>3040700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I333"/>
+  <dimension ref="A1:I334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12091,6 +12091,41 @@
         <v>3040700</v>
       </c>
     </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E334" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F334" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I334" t="n">
+        <v>1857100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I334"/>
+  <dimension ref="A1:I335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12126,6 +12126,41 @@
         <v>1857100</v>
       </c>
     </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E335" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F335" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I335" t="n">
+        <v>815200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I335"/>
+  <dimension ref="A1:I336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12161,6 +12161,41 @@
         <v>815200</v>
       </c>
     </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E336" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F336" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I336" t="n">
+        <v>1140000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I336"/>
+  <dimension ref="A1:I337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12196,6 +12196,41 @@
         <v>1140000</v>
       </c>
     </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E337" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F337" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I337" t="n">
+        <v>1357900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I337"/>
+  <dimension ref="A1:I338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12231,6 +12231,41 @@
         <v>1357900</v>
       </c>
     </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E338" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F338" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I338" t="n">
+        <v>360100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I338"/>
+  <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12266,6 +12266,41 @@
         <v>360100</v>
       </c>
     </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E339" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F339" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I339" t="n">
+        <v>1654100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I339"/>
+  <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12301,6 +12301,41 @@
         <v>1654100</v>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E340" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F340" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I340" t="n">
+        <v>210000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I340"/>
+  <dimension ref="A1:I341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12336,6 +12336,41 @@
         <v>210000</v>
       </c>
     </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E341" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F341" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I341" t="n">
+        <v>3307300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I341"/>
+  <dimension ref="A1:I342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12371,6 +12371,41 @@
         <v>3307300</v>
       </c>
     </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E342" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F342" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I342" t="n">
+        <v>3059300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I342"/>
+  <dimension ref="A1:I343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12406,6 +12406,41 @@
         <v>3059300</v>
       </c>
     </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E343" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F343" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I343" t="n">
+        <v>497800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I343"/>
+  <dimension ref="A1:I344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12441,6 +12441,41 @@
         <v>497800</v>
       </c>
     </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E344" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F344" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I344" t="n">
+        <v>744000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I344"/>
+  <dimension ref="A1:I345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12476,6 +12476,41 @@
         <v>744000</v>
       </c>
     </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E345" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F345" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I345" t="n">
+        <v>2868800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I345"/>
+  <dimension ref="A1:I346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12511,6 +12511,41 @@
         <v>2868800</v>
       </c>
     </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E346" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F346" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I346" t="n">
+        <v>2985700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I346"/>
+  <dimension ref="A1:I347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12546,6 +12546,41 @@
         <v>2985700</v>
       </c>
     </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E347" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F347" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I347" t="n">
+        <v>2379600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I347"/>
+  <dimension ref="A1:I348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12581,6 +12581,41 @@
         <v>2379600</v>
       </c>
     </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E348" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F348" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I348" t="n">
+        <v>1333200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I348"/>
+  <dimension ref="A1:I349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12616,6 +12616,41 @@
         <v>1333200</v>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E349" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F349" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I349" t="n">
+        <v>1686000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I349"/>
+  <dimension ref="A1:I350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12651,6 +12651,41 @@
         <v>1686000</v>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E350" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F350" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I350" t="n">
+        <v>615000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I350"/>
+  <dimension ref="A1:I351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12686,6 +12686,41 @@
         <v>615000</v>
       </c>
     </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E351" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F351" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I351" t="n">
+        <v>921200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I351"/>
+  <dimension ref="A1:I352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12721,6 +12721,41 @@
         <v>921200</v>
       </c>
     </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E352" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F352" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I352" t="n">
+        <v>741300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I352"/>
+  <dimension ref="A1:I353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12756,6 +12756,41 @@
         <v>741300</v>
       </c>
     </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E353" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F353" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I353" t="n">
+        <v>550900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I353"/>
+  <dimension ref="A1:I354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12791,6 +12791,41 @@
         <v>550900</v>
       </c>
     </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E354" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F354" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>9504200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I354"/>
+  <dimension ref="A1:I356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12826,6 +12826,76 @@
         <v>9504200</v>
       </c>
     </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E355" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F355" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I355" t="n">
+        <v>9690000</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E356" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F356" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I356" t="n">
+        <v>3219500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I356"/>
+  <dimension ref="A1:I357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12896,6 +12896,41 @@
         <v>3219500</v>
       </c>
     </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E357" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F357" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>1675300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I357"/>
+  <dimension ref="A1:I360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12931,6 +12931,111 @@
         <v>1675300</v>
       </c>
     </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E358" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F358" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>2091500</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E359" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F359" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>1260900</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E360" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F360" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I360" t="n">
+        <v>33796100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I360"/>
+  <dimension ref="A1:I361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13036,6 +13036,41 @@
         <v>33796100</v>
       </c>
     </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E361" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F361" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I361" t="n">
+        <v>19696100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I361"/>
+  <dimension ref="A1:I362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13071,6 +13071,41 @@
         <v>19696100</v>
       </c>
     </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E362" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F362" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I362" t="n">
+        <v>8382000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0203.xlsx
+++ b/data/0203.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I362"/>
+  <dimension ref="A1:I365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13106,6 +13106,111 @@
         <v>8382000</v>
       </c>
     </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E363" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F363" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I363" t="n">
+        <v>3995000</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E364" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F364" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I364" t="n">
+        <v>11613600</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>SMETRIC</t>
+        </is>
+      </c>
+      <c r="E365" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F365" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I365" t="n">
+        <v>4383200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
